--- a/src/main/java/testing/excel/hw6.xlsx
+++ b/src/main/java/testing/excel/hw6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zxrsheep/Documents/All/testing/src/main/java/testing/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FC480C-D159-A74F-9249-BD5C56EB0A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7D1CD0-4269-C24E-988B-1A342C394FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
@@ -2136,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
@@ -2584,11 +2584,11 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2629,7 +2629,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="43">
-        <v>23.5</v>
+        <v>-1</v>
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="16" t="s">
@@ -2647,7 +2647,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="43">
-        <v>23.5</v>
+        <v>-1</v>
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="16" t="s">
@@ -2665,7 +2665,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="43">
-        <v>23.5</v>
+        <v>-1</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="16" t="s">
@@ -2683,7 +2683,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="43">
-        <v>23.5</v>
+        <v>-1</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="16" t="s">
@@ -2701,7 +2701,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="43">
-        <v>23.5</v>
+        <v>-1</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="16" t="s">
@@ -2809,7 +2809,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="43">
-        <v>27.97</v>
+        <v>-1</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="20" t="s">
@@ -2827,7 +2827,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="43">
-        <v>36.82</v>
+        <v>-1</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="20" t="s">
@@ -2845,7 +2845,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="43">
-        <v>47.05</v>
+        <v>-1</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="20" t="s">
@@ -2863,7 +2863,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="43">
-        <v>54.25</v>
+        <v>-1</v>
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="20" t="s">
@@ -2881,7 +2881,7 @@
         <v>8</v>
       </c>
       <c r="D16" s="43">
-        <v>97.75</v>
+        <v>-1</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="20" t="s">

--- a/src/main/java/testing/excel/hw6.xlsx
+++ b/src/main/java/testing/excel/hw6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zxrsheep/Documents/All/testing/src/main/java/testing/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7D1CD0-4269-C24E-988B-1A342C394FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9ADD79-7C47-024E-9F56-18D421A50A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2137,7 +2137,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
@@ -2585,10 +2585,10 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2719,7 +2719,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="43">
-        <v>72775</v>
+        <v>-1</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="17" t="s">
@@ -2737,7 +2737,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="43">
-        <v>72775</v>
+        <v>-1</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="12" t="s">
@@ -2755,7 +2755,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="43">
-        <v>72775</v>
+        <v>-1</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="17" t="s">
@@ -2773,7 +2773,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="43">
-        <v>72775</v>
+        <v>-1</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="12" t="s">
@@ -2791,7 +2791,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="43">
-        <v>75025</v>
+        <v>-1</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="17" t="s">
@@ -2899,7 +2899,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="43">
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="20" t="s">
@@ -2917,7 +2917,7 @@
         <v>8</v>
       </c>
       <c r="D18" s="43">
-        <v>37</v>
+        <v>-1</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="11" t="s">
@@ -2935,7 +2935,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="43">
-        <v>47.5</v>
+        <v>-1</v>
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="20" t="s">
@@ -2953,7 +2953,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="43">
-        <v>55</v>
+        <v>-1</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="11" t="s">
@@ -2971,7 +2971,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="43">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="20" t="s">

--- a/src/main/java/testing/excel/hw6.xlsx
+++ b/src/main/java/testing/excel/hw6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zxrsheep/Documents/All/testing/src/main/java/testing/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9ADD79-7C47-024E-9F56-18D421A50A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0581576-56B9-8248-99C3-903C5F143A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Numbers 工作表名称</t>
   </si>
@@ -113,49 +113,6 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>等价类法</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>题目</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>6_弱健壮</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FF0000FF"/>
         <rFont val="Helvetica Neue"/>
         <family val="2"/>
       </rPr>
@@ -2066,14 +2023,14 @@
   <sheetData>
     <row r="3" spans="2:4" ht="50" customHeight="1">
       <c r="B3" s="49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
     </row>
     <row r="4" spans="2:4" ht="65" customHeight="1">
       <c r="B4" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="19">
@@ -2115,9 +2072,7 @@
       <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="D12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2126,7 +2081,6 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D10" location="'工作表 1 - 题目一_一般边界值法'!R2C1" display="工作表 1 - 题目一_一般边界值法" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D12" location="'工作表 2 - 题目一_弱一般等价类法'!R2C1" display="工作表 2 - 题目一_弱一般等价类法" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2137,10 +2091,10 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2151,19 +2105,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="6"/>
     </row>
@@ -2585,10 +2539,10 @@
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11:D21"/>
+      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
@@ -2600,19 +2554,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>5</v>
@@ -2633,7 +2587,7 @@
       </c>
       <c r="E2" s="47"/>
       <c r="F2" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="22.25" customHeight="1">
@@ -2651,7 +2605,7 @@
       </c>
       <c r="E3" s="48"/>
       <c r="F3" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="22.25" customHeight="1">
@@ -2669,7 +2623,7 @@
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="22.25" customHeight="1">
@@ -2687,7 +2641,7 @@
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="22.25" customHeight="1">
@@ -2705,7 +2659,7 @@
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="22.25" customHeight="1">
@@ -2723,7 +2677,7 @@
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.25" customHeight="1">
@@ -2741,7 +2695,7 @@
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20" customHeight="1">
@@ -2759,7 +2713,7 @@
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20" customHeight="1">
@@ -2777,7 +2731,7 @@
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20" customHeight="1">
@@ -2795,7 +2749,7 @@
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1">
@@ -2813,7 +2767,7 @@
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20" customHeight="1">
@@ -2831,7 +2785,7 @@
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20" customHeight="1">
@@ -2849,7 +2803,7 @@
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20" customHeight="1">
@@ -2867,7 +2821,7 @@
       </c>
       <c r="E15" s="48"/>
       <c r="F15" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1">
@@ -2885,7 +2839,7 @@
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20" customHeight="1">
@@ -2903,7 +2857,7 @@
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20" customHeight="1">
@@ -2921,7 +2875,7 @@
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20" customHeight="1">
@@ -2939,7 +2893,7 @@
       </c>
       <c r="E19" s="48"/>
       <c r="F19" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20" customHeight="1">
@@ -2957,7 +2911,7 @@
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20" customHeight="1">
@@ -2975,7 +2929,7 @@
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20" customHeight="1">
@@ -2993,7 +2947,7 @@
       </c>
       <c r="E22" s="48"/>
       <c r="F22" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20" customHeight="1">
@@ -3011,7 +2965,7 @@
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20" customHeight="1">
@@ -3029,7 +2983,7 @@
       </c>
       <c r="E24" s="48"/>
       <c r="F24" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1">
@@ -3047,7 +3001,7 @@
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1">
@@ -3065,7 +3019,7 @@
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20" customHeight="1">
@@ -3083,7 +3037,7 @@
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20" customHeight="1">
@@ -3101,7 +3055,7 @@
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20" customHeight="1">
@@ -3119,7 +3073,7 @@
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20" customHeight="1">
@@ -3137,7 +3091,7 @@
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20" customHeight="1">
@@ -3155,7 +3109,7 @@
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20" customHeight="1">
@@ -3173,7 +3127,7 @@
       </c>
       <c r="E32" s="48"/>
       <c r="F32" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20" customHeight="1">
@@ -3191,7 +3145,7 @@
       </c>
       <c r="E33" s="48"/>
       <c r="F33" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20" customHeight="1">
@@ -3209,7 +3163,7 @@
       </c>
       <c r="E34" s="48"/>
       <c r="F34" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20" customHeight="1">
@@ -3227,7 +3181,7 @@
       </c>
       <c r="E35" s="48"/>
       <c r="F35" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="20" customHeight="1">
@@ -3245,7 +3199,7 @@
       </c>
       <c r="E36" s="48"/>
       <c r="F36" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20" customHeight="1">
@@ -3263,7 +3217,7 @@
       </c>
       <c r="E37" s="48"/>
       <c r="F37" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="20" customHeight="1">
@@ -3281,7 +3235,7 @@
       </c>
       <c r="E38" s="48"/>
       <c r="F38" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20" customHeight="1">
@@ -3299,7 +3253,7 @@
       </c>
       <c r="E39" s="48"/>
       <c r="F39" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20" customHeight="1">
@@ -3317,7 +3271,7 @@
       </c>
       <c r="E40" s="48"/>
       <c r="F40" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20" customHeight="1">
@@ -3335,7 +3289,7 @@
       </c>
       <c r="E41" s="48"/>
       <c r="F41" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20" customHeight="1">
@@ -3353,7 +3307,7 @@
       </c>
       <c r="E42" s="48"/>
       <c r="F42" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20" customHeight="1">
@@ -3371,7 +3325,7 @@
       </c>
       <c r="E43" s="48"/>
       <c r="F43" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="20" customHeight="1">
@@ -3389,7 +3343,7 @@
       </c>
       <c r="E44" s="48"/>
       <c r="F44" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="20" customHeight="1">
@@ -3407,7 +3361,7 @@
       </c>
       <c r="E45" s="48"/>
       <c r="F45" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="20" customHeight="1">
@@ -3425,7 +3379,7 @@
       </c>
       <c r="E46" s="48"/>
       <c r="F46" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/testing/excel/hw6.xlsx
+++ b/src/main/java/testing/excel/hw6.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zxrsheep/Documents/All/testing/src/main/java/testing/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\软件测试\soltware_testing-master\src\main\java\testing\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0581576-56B9-8248-99C3-903C5F143A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B96A04-3193-4A82-A8C0-3530CFE7A2EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="28800" windowHeight="16044" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="导出摘要" sheetId="1" r:id="rId1"/>
     <sheet name="工作表 1 - 题目一_一般边界值法" sheetId="2" r:id="rId2"/>
     <sheet name="工作表 2 - 题目一_弱健壮等价类法" sheetId="3" r:id="rId3"/>
+    <sheet name="决策表法" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="81">
   <si>
     <t>Numbers 工作表名称</t>
   </si>
@@ -310,6 +311,112 @@
   </si>
   <si>
     <t>expect</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划3</t>
+  </si>
+  <si>
+    <t>规划4</t>
+  </si>
+  <si>
+    <t>规划5</t>
+  </si>
+  <si>
+    <t>规划6</t>
+  </si>
+  <si>
+    <t>规划7</t>
+  </si>
+  <si>
+    <t>规划8</t>
+  </si>
+  <si>
+    <t>规划9</t>
+  </si>
+  <si>
+    <t>规划10</t>
+  </si>
+  <si>
+    <t>规划11</t>
+  </si>
+  <si>
+    <t>规划12</t>
+  </si>
+  <si>
+    <t>规划13</t>
+  </si>
+  <si>
+    <t>规划14</t>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>y2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>y5</t>
+  </si>
+  <si>
+    <t>y1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.349999999999994</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.849999999999994</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.724999999999994</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>61.449999999999996</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +546,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -691,13 +798,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -845,11 +1032,47 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2014,26 +2237,26 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10" defaultRowHeight="13" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="44.33203125" customWidth="1"/>
     <col min="3" max="4" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="50" customHeight="1">
-      <c r="B3" s="49" t="s">
+    <row r="3" spans="2:4" ht="49.95" customHeight="1">
+      <c r="B3" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-    </row>
-    <row r="4" spans="2:4" ht="65" customHeight="1">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+    </row>
+    <row r="4" spans="2:4" ht="64.95" customHeight="1">
       <c r="B4" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="19">
+    <row r="7" spans="2:4" ht="17.399999999999999">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2044,14 +2267,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="17">
+    <row r="9" spans="2:4" ht="15">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="2:4" ht="17">
+    <row r="10" spans="2:4" ht="15">
       <c r="B10" s="3"/>
       <c r="C10" s="14" t="s">
         <v>6</v>
@@ -2060,14 +2283,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="17">
+    <row r="11" spans="2:4" ht="15">
       <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="2:4" ht="17">
+    <row r="12" spans="2:4" ht="15">
       <c r="B12" s="3"/>
       <c r="C12" s="14" t="s">
         <v>10</v>
@@ -2097,7 +2320,7 @@
       <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="7" width="16.33203125" style="4" customWidth="1"/>
     <col min="8" max="16384" width="16.33203125" style="4"/>
@@ -2137,7 +2360,7 @@
       <c r="E2" s="38"/>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" spans="1:6" ht="22.25" customHeight="1">
+    <row r="3" spans="1:6" ht="22.2" customHeight="1">
       <c r="A3" s="24">
         <v>200</v>
       </c>
@@ -2153,7 +2376,7 @@
       <c r="E3" s="39"/>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:6" ht="22.25" customHeight="1">
+    <row r="4" spans="1:6" ht="22.2" customHeight="1">
       <c r="A4" s="27">
         <v>200</v>
       </c>
@@ -2169,7 +2392,7 @@
       <c r="E4" s="40"/>
       <c r="F4" s="30"/>
     </row>
-    <row r="5" spans="1:6" ht="22.25" customHeight="1">
+    <row r="5" spans="1:6" ht="22.2" customHeight="1">
       <c r="A5" s="26">
         <v>200</v>
       </c>
@@ -2185,7 +2408,7 @@
       <c r="E5" s="41"/>
       <c r="F5" s="30"/>
     </row>
-    <row r="6" spans="1:6" ht="23.75" customHeight="1">
+    <row r="6" spans="1:6" ht="23.7" customHeight="1">
       <c r="A6" s="26">
         <v>200</v>
       </c>
@@ -2201,7 +2424,7 @@
       <c r="E6" s="41"/>
       <c r="F6" s="30"/>
     </row>
-    <row r="7" spans="1:6" ht="23.75" customHeight="1">
+    <row r="7" spans="1:6" ht="23.7" customHeight="1">
       <c r="A7" s="26">
         <v>0</v>
       </c>
@@ -2217,7 +2440,7 @@
       <c r="E7" s="41"/>
       <c r="F7" s="30"/>
     </row>
-    <row r="8" spans="1:6" ht="22.25" customHeight="1">
+    <row r="8" spans="1:6" ht="22.2" customHeight="1">
       <c r="A8" s="26">
         <v>0</v>
       </c>
@@ -2233,7 +2456,7 @@
       <c r="E8" s="41"/>
       <c r="F8" s="30"/>
     </row>
-    <row r="9" spans="1:6" ht="22.25" customHeight="1">
+    <row r="9" spans="1:6" ht="22.2" customHeight="1">
       <c r="A9" s="26">
         <v>0</v>
       </c>
@@ -2249,7 +2472,7 @@
       <c r="E9" s="41"/>
       <c r="F9" s="30"/>
     </row>
-    <row r="10" spans="1:6" ht="22.25" customHeight="1">
+    <row r="10" spans="1:6" ht="22.2" customHeight="1">
       <c r="A10" s="26">
         <v>0</v>
       </c>
@@ -2265,7 +2488,7 @@
       <c r="E10" s="41"/>
       <c r="F10" s="30"/>
     </row>
-    <row r="11" spans="1:6" ht="23.75" customHeight="1">
+    <row r="11" spans="1:6" ht="23.7" customHeight="1">
       <c r="A11" s="26">
         <v>0</v>
       </c>
@@ -2281,7 +2504,7 @@
       <c r="E11" s="41"/>
       <c r="F11" s="30"/>
     </row>
-    <row r="12" spans="1:6" ht="23.75" customHeight="1">
+    <row r="12" spans="1:6" ht="23.7" customHeight="1">
       <c r="A12" s="26">
         <v>20</v>
       </c>
@@ -2297,7 +2520,7 @@
       <c r="E12" s="41"/>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:6" ht="22.25" customHeight="1">
+    <row r="13" spans="1:6" ht="22.2" customHeight="1">
       <c r="A13" s="26">
         <v>20</v>
       </c>
@@ -2313,7 +2536,7 @@
       <c r="E13" s="41"/>
       <c r="F13" s="30"/>
     </row>
-    <row r="14" spans="1:6" ht="22.25" customHeight="1">
+    <row r="14" spans="1:6" ht="22.2" customHeight="1">
       <c r="A14" s="26">
         <v>20</v>
       </c>
@@ -2329,7 +2552,7 @@
       <c r="E14" s="41"/>
       <c r="F14" s="30"/>
     </row>
-    <row r="15" spans="1:6" ht="22.25" customHeight="1">
+    <row r="15" spans="1:6" ht="22.2" customHeight="1">
       <c r="A15" s="26">
         <v>20</v>
       </c>
@@ -2345,7 +2568,7 @@
       <c r="E15" s="41"/>
       <c r="F15" s="30"/>
     </row>
-    <row r="16" spans="1:6" ht="23.75" customHeight="1">
+    <row r="16" spans="1:6" ht="23.7" customHeight="1">
       <c r="A16" s="26">
         <v>20</v>
       </c>
@@ -2361,7 +2584,7 @@
       <c r="E16" s="41"/>
       <c r="F16" s="30"/>
     </row>
-    <row r="17" spans="1:6" ht="21.25" customHeight="1">
+    <row r="17" spans="1:6" ht="21.3" customHeight="1">
       <c r="A17" s="28">
         <v>44640</v>
       </c>
@@ -2377,7 +2600,7 @@
       <c r="E17" s="41"/>
       <c r="F17" s="30"/>
     </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
+    <row r="18" spans="1:6" ht="19.95" customHeight="1">
       <c r="A18" s="28">
         <v>44640</v>
       </c>
@@ -2393,7 +2616,7 @@
       <c r="E18" s="41"/>
       <c r="F18" s="30"/>
     </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
+    <row r="19" spans="1:6" ht="19.95" customHeight="1">
       <c r="A19" s="28">
         <v>44640</v>
       </c>
@@ -2409,7 +2632,7 @@
       <c r="E19" s="41"/>
       <c r="F19" s="30"/>
     </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
+    <row r="20" spans="1:6" ht="19.95" customHeight="1">
       <c r="A20" s="28">
         <v>44640</v>
       </c>
@@ -2425,7 +2648,7 @@
       <c r="E20" s="41"/>
       <c r="F20" s="30"/>
     </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
+    <row r="21" spans="1:6" ht="19.95" customHeight="1">
       <c r="A21" s="28">
         <v>44640</v>
       </c>
@@ -2441,7 +2664,7 @@
       <c r="E21" s="41"/>
       <c r="F21" s="30"/>
     </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+    <row r="22" spans="1:6" ht="19.95" customHeight="1">
       <c r="A22" s="28">
         <v>44000</v>
       </c>
@@ -2457,7 +2680,7 @@
       <c r="E22" s="41"/>
       <c r="F22" s="30"/>
     </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
+    <row r="23" spans="1:6" ht="19.95" customHeight="1">
       <c r="A23" s="26">
         <v>44000</v>
       </c>
@@ -2473,7 +2696,7 @@
       <c r="E23" s="41"/>
       <c r="F23" s="30"/>
     </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
+    <row r="24" spans="1:6" ht="19.95" customHeight="1">
       <c r="A24" s="28">
         <v>44000</v>
       </c>
@@ -2489,7 +2712,7 @@
       <c r="E24" s="41"/>
       <c r="F24" s="30"/>
     </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
+    <row r="25" spans="1:6" ht="19.95" customHeight="1">
       <c r="A25" s="27">
         <v>44000</v>
       </c>
@@ -2505,7 +2728,7 @@
       <c r="E25" s="41"/>
       <c r="F25" s="30"/>
     </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
+    <row r="26" spans="1:6" ht="19.95" customHeight="1">
       <c r="A26" s="30">
         <v>44000</v>
       </c>
@@ -2538,14 +2761,14 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="19.95" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="16.33203125" style="13" customWidth="1"/>
     <col min="4" max="6" width="16.33203125" style="13"/>
@@ -2590,7 +2813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22.25" customHeight="1">
+    <row r="3" spans="1:6" ht="22.2" customHeight="1">
       <c r="A3" s="10">
         <v>-10</v>
       </c>
@@ -2608,7 +2831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.25" customHeight="1">
+    <row r="4" spans="1:6" ht="22.2" customHeight="1">
       <c r="A4" s="7">
         <v>-10</v>
       </c>
@@ -2626,7 +2849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.25" customHeight="1">
+    <row r="5" spans="1:6" ht="22.2" customHeight="1">
       <c r="A5" s="10">
         <v>-10</v>
       </c>
@@ -2644,7 +2867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="22.25" customHeight="1">
+    <row r="6" spans="1:6" ht="22.2" customHeight="1">
       <c r="A6" s="7">
         <v>-10</v>
       </c>
@@ -2662,7 +2885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="22.25" customHeight="1">
+    <row r="7" spans="1:6" ht="22.2" customHeight="1">
       <c r="A7" s="10">
         <v>500000</v>
       </c>
@@ -2680,7 +2903,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="22.25" customHeight="1">
+    <row r="8" spans="1:6" ht="22.2" customHeight="1">
       <c r="A8" s="10">
         <v>500000</v>
       </c>
@@ -2698,7 +2921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="20" customHeight="1">
+    <row r="9" spans="1:6" ht="19.95" customHeight="1">
       <c r="A9" s="10">
         <v>500000</v>
       </c>
@@ -2716,7 +2939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="20" customHeight="1">
+    <row r="10" spans="1:6" ht="19.95" customHeight="1">
       <c r="A10" s="10">
         <v>500000</v>
       </c>
@@ -2734,7 +2957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20" customHeight="1">
+    <row r="11" spans="1:6" ht="19.95" customHeight="1">
       <c r="A11" s="10">
         <v>500000</v>
       </c>
@@ -2752,7 +2975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20" customHeight="1">
+    <row r="12" spans="1:6" ht="19.95" customHeight="1">
       <c r="A12" s="11">
         <v>20</v>
       </c>
@@ -2770,7 +2993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20" customHeight="1">
+    <row r="13" spans="1:6" ht="19.95" customHeight="1">
       <c r="A13" s="11">
         <v>80</v>
       </c>
@@ -2788,7 +3011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20" customHeight="1">
+    <row r="14" spans="1:6" ht="19.95" customHeight="1">
       <c r="A14" s="11">
         <v>150</v>
       </c>
@@ -2806,7 +3029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20" customHeight="1">
+    <row r="15" spans="1:6" ht="19.95" customHeight="1">
       <c r="A15" s="11">
         <v>200</v>
       </c>
@@ -2824,7 +3047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20" customHeight="1">
+    <row r="16" spans="1:6" ht="19.95" customHeight="1">
       <c r="A16" s="11">
         <v>500</v>
       </c>
@@ -2842,7 +3065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="20" customHeight="1">
+    <row r="17" spans="1:6" ht="19.95" customHeight="1">
       <c r="A17" s="11">
         <v>20</v>
       </c>
@@ -2860,7 +3083,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20" customHeight="1">
+    <row r="18" spans="1:6" ht="19.95" customHeight="1">
       <c r="A18" s="11">
         <v>80</v>
       </c>
@@ -2878,7 +3101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="20" customHeight="1">
+    <row r="19" spans="1:6" ht="19.95" customHeight="1">
       <c r="A19" s="11">
         <v>150</v>
       </c>
@@ -2896,7 +3119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="20" customHeight="1">
+    <row r="20" spans="1:6" ht="19.95" customHeight="1">
       <c r="A20" s="11">
         <v>200</v>
       </c>
@@ -2914,7 +3137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="20" customHeight="1">
+    <row r="21" spans="1:6" ht="19.95" customHeight="1">
       <c r="A21" s="11">
         <v>500</v>
       </c>
@@ -2932,7 +3155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="20" customHeight="1">
+    <row r="22" spans="1:6" ht="19.95" customHeight="1">
       <c r="A22" s="22">
         <v>20</v>
       </c>
@@ -2950,7 +3173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="20" customHeight="1">
+    <row r="23" spans="1:6" ht="19.95" customHeight="1">
       <c r="A23" s="23">
         <v>80</v>
       </c>
@@ -2968,7 +3191,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20" customHeight="1">
+    <row r="24" spans="1:6" ht="19.95" customHeight="1">
       <c r="A24" s="23">
         <v>150</v>
       </c>
@@ -2986,7 +3209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20" customHeight="1">
+    <row r="25" spans="1:6" ht="19.95" customHeight="1">
       <c r="A25" s="23">
         <v>200</v>
       </c>
@@ -3004,7 +3227,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="20" customHeight="1">
+    <row r="26" spans="1:6" ht="19.95" customHeight="1">
       <c r="A26" s="23">
         <v>500</v>
       </c>
@@ -3022,7 +3245,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="20" customHeight="1">
+    <row r="27" spans="1:6" ht="19.95" customHeight="1">
       <c r="A27" s="22">
         <v>20</v>
       </c>
@@ -3040,7 +3263,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="20" customHeight="1">
+    <row r="28" spans="1:6" ht="19.95" customHeight="1">
       <c r="A28" s="23">
         <v>80</v>
       </c>
@@ -3058,7 +3281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="20" customHeight="1">
+    <row r="29" spans="1:6" ht="19.95" customHeight="1">
       <c r="A29" s="23">
         <v>150</v>
       </c>
@@ -3076,7 +3299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="20" customHeight="1">
+    <row r="30" spans="1:6" ht="19.95" customHeight="1">
       <c r="A30" s="23">
         <v>200</v>
       </c>
@@ -3094,7 +3317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="20" customHeight="1">
+    <row r="31" spans="1:6" ht="19.95" customHeight="1">
       <c r="A31" s="23">
         <v>500</v>
       </c>
@@ -3112,7 +3335,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="20" customHeight="1">
+    <row r="32" spans="1:6" ht="19.95" customHeight="1">
       <c r="A32" s="22">
         <v>20</v>
       </c>
@@ -3130,7 +3353,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="20" customHeight="1">
+    <row r="33" spans="1:6" ht="19.95" customHeight="1">
       <c r="A33" s="23">
         <v>80</v>
       </c>
@@ -3148,7 +3371,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="20" customHeight="1">
+    <row r="34" spans="1:6" ht="19.95" customHeight="1">
       <c r="A34" s="23">
         <v>150</v>
       </c>
@@ -3166,7 +3389,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="20" customHeight="1">
+    <row r="35" spans="1:6" ht="19.95" customHeight="1">
       <c r="A35" s="23">
         <v>200</v>
       </c>
@@ -3184,7 +3407,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="20" customHeight="1">
+    <row r="36" spans="1:6" ht="19.95" customHeight="1">
       <c r="A36" s="23">
         <v>500</v>
       </c>
@@ -3202,7 +3425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="20" customHeight="1">
+    <row r="37" spans="1:6" ht="19.95" customHeight="1">
       <c r="A37" s="22">
         <v>20</v>
       </c>
@@ -3220,7 +3443,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="20" customHeight="1">
+    <row r="38" spans="1:6" ht="19.95" customHeight="1">
       <c r="A38" s="23">
         <v>80</v>
       </c>
@@ -3238,7 +3461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="20" customHeight="1">
+    <row r="39" spans="1:6" ht="19.95" customHeight="1">
       <c r="A39" s="23">
         <v>150</v>
       </c>
@@ -3256,7 +3479,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="20" customHeight="1">
+    <row r="40" spans="1:6" ht="19.95" customHeight="1">
       <c r="A40" s="23">
         <v>200</v>
       </c>
@@ -3274,7 +3497,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="20" customHeight="1">
+    <row r="41" spans="1:6" ht="19.95" customHeight="1">
       <c r="A41" s="23">
         <v>500</v>
       </c>
@@ -3292,7 +3515,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="20" customHeight="1">
+    <row r="42" spans="1:6" ht="19.95" customHeight="1">
       <c r="A42" s="22">
         <v>20</v>
       </c>
@@ -3310,7 +3533,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="20" customHeight="1">
+    <row r="43" spans="1:6" ht="19.95" customHeight="1">
       <c r="A43" s="23">
         <v>80</v>
       </c>
@@ -3328,7 +3551,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="20" customHeight="1">
+    <row r="44" spans="1:6" ht="19.95" customHeight="1">
       <c r="A44" s="23">
         <v>150</v>
       </c>
@@ -3346,7 +3569,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="20" customHeight="1">
+    <row r="45" spans="1:6" ht="19.95" customHeight="1">
       <c r="A45" s="23">
         <v>200</v>
       </c>
@@ -3364,7 +3587,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="20" customHeight="1">
+    <row r="46" spans="1:6" ht="19.95" customHeight="1">
       <c r="A46" s="23">
         <v>500</v>
       </c>
@@ -3390,4 +3613,815 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368109E4-1FA7-4C64-BEA5-BCC4C1DFD0C0}">
+  <dimension ref="A1:AE26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="3" width="8.77734375" style="49"/>
+    <col min="4" max="4" width="20.5546875" style="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="7">
+        <v>30</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="50">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="43">
+        <f>25+0.15*(1-C2)*A2</f>
+        <v>29.454999999999998</v>
+      </c>
+      <c r="E2" s="47"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="7">
+        <v>30</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="43">
+        <v>29.5</v>
+      </c>
+      <c r="E3" s="48"/>
+      <c r="H3" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="52"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="52"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="53"/>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="7">
+        <v>30</v>
+      </c>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="43">
+        <v>29.5</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="H4" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q4" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="S4" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" s="56" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="7">
+        <v>30</v>
+      </c>
+      <c r="B5" s="11">
+        <v>5</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="43">
+        <v>29.5</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="H5" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="W5" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="X5" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z5" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC5" s="58" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="7">
+        <v>30</v>
+      </c>
+      <c r="B6" s="11">
+        <v>8</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="43">
+        <v>29.5</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="56"/>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="10">
+        <v>67</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="50">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D7" s="43">
+        <f>25+A7*(1-C7)*0.15</f>
+        <v>34.899250000000002</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="56"/>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="10">
+        <v>84</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2</v>
+      </c>
+      <c r="C8" s="50">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D8" s="43">
+        <f>25+A8*(1-C8)*0.15</f>
+        <v>37.411000000000001</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="R8" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="56"/>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="10">
+        <v>92</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="43">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="W9" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="X9" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="56"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="10">
+        <v>109</v>
+      </c>
+      <c r="B10" s="11">
+        <v>5</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB10" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC10" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD10" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE10" s="56"/>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="10">
+        <v>120</v>
+      </c>
+      <c r="B11" s="11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="43">
+        <v>43</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="H11" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="O11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="58"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="U11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z11" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="58"/>
+      <c r="AE11" s="59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="11">
+        <v>130</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="C12" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="D12" s="43">
+        <f>25+0.15*(1-C12)*A12</f>
+        <v>44.11</v>
+      </c>
+      <c r="E12" s="48"/>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="11">
+        <v>148</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="D13" s="43">
+        <f t="shared" ref="D13:D14" si="0">25+0.15*(1-C13)*A13</f>
+        <v>46.756</v>
+      </c>
+      <c r="E13" s="48"/>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="11">
+        <v>175</v>
+      </c>
+      <c r="B14" s="11">
+        <v>3</v>
+      </c>
+      <c r="C14" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="48"/>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="11">
+        <v>179</v>
+      </c>
+      <c r="B15" s="11">
+        <v>4</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="48"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="11">
+        <v>128</v>
+      </c>
+      <c r="B16" s="11">
+        <v>9</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="43">
+        <v>44.2</v>
+      </c>
+      <c r="E16" s="48"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="11">
+        <v>203</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1</v>
+      </c>
+      <c r="C17" s="50">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D17" s="43">
+        <f>25+0.15*(1-C17)*A17</f>
+        <v>54.688749999999999</v>
+      </c>
+      <c r="E17" s="48"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="11">
+        <v>202</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2</v>
+      </c>
+      <c r="C18" s="50">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D18" s="43">
+        <f t="shared" ref="D18:D19" si="1">25+0.15*(1-C18)*A18</f>
+        <v>54.542499999999997</v>
+      </c>
+      <c r="E18" s="48"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="11">
+        <v>221</v>
+      </c>
+      <c r="B19" s="11">
+        <v>3</v>
+      </c>
+      <c r="C19" s="50">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D19" s="43">
+        <f t="shared" si="1"/>
+        <v>57.321249999999999</v>
+      </c>
+      <c r="E19" s="48"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="11">
+        <v>243</v>
+      </c>
+      <c r="B20" s="11">
+        <v>4</v>
+      </c>
+      <c r="C20" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="48"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="11">
+        <v>300</v>
+      </c>
+      <c r="B21" s="11">
+        <v>10</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="43">
+        <v>70</v>
+      </c>
+      <c r="E21" s="48"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="22">
+        <v>549</v>
+      </c>
+      <c r="B22" s="8">
+        <v>1</v>
+      </c>
+      <c r="C22" s="45">
+        <v>0.03</v>
+      </c>
+      <c r="D22" s="43">
+        <f>25+0.15*(1-C22)*A22</f>
+        <v>104.87949999999999</v>
+      </c>
+      <c r="E22" s="48"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="23">
+        <v>582</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2</v>
+      </c>
+      <c r="C23" s="45">
+        <v>0.03</v>
+      </c>
+      <c r="D23" s="43">
+        <f t="shared" ref="D23:D25" si="2">25+0.15*(1-C23)*A23</f>
+        <v>109.681</v>
+      </c>
+      <c r="E23" s="48"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="23">
+        <v>1051</v>
+      </c>
+      <c r="B24" s="11">
+        <v>3</v>
+      </c>
+      <c r="C24" s="45">
+        <v>0.03</v>
+      </c>
+      <c r="D24" s="43">
+        <f t="shared" si="2"/>
+        <v>177.9205</v>
+      </c>
+      <c r="E24" s="48"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="23">
+        <v>1178</v>
+      </c>
+      <c r="B25" s="11">
+        <v>4</v>
+      </c>
+      <c r="C25" s="45">
+        <v>0.03</v>
+      </c>
+      <c r="D25" s="43">
+        <f t="shared" si="2"/>
+        <v>196.399</v>
+      </c>
+      <c r="E25" s="48"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="49">
+        <v>1456</v>
+      </c>
+      <c r="B26" s="11">
+        <v>10</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="43">
+        <v>243.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>